--- a/data/trans_camb/P1804_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1804_2016_2023-Clase-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.677647976076607</v>
+        <v>1.677647976076606</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>-2.035102545828919</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.06896906988753532</v>
+        <v>0.06896906988753393</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.702957015203269</v>
+        <v>-2.054486218539199</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.868931379808589</v>
+        <v>-6.883814302337004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.759206618385459</v>
+        <v>-2.763966102452281</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.692424012125373</v>
+        <v>5.499088145666325</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.368512033533198</v>
+        <v>2.318290033322243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.864798788677986</v>
+        <v>3.118040317250292</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.2340018349946983</v>
+        <v>0.2340018349946981</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.1535217721648004</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.006972862022622395</v>
+        <v>0.006972862022622255</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1908220953942902</v>
+        <v>-0.251205292062779</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4082897311893948</v>
+        <v>-0.4176419142036604</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2447440949298673</v>
+        <v>-0.2384109845005606</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.067424080203173</v>
+        <v>1.045754410021619</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2329286785123591</v>
+        <v>0.2436391238081567</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3556010029087014</v>
+        <v>0.3740229486027094</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.612939163324408</v>
+        <v>4.612939163324406</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8161622971909575</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.670544469800247</v>
+        <v>2.670544469800249</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8639814323604023</v>
+        <v>1.128751838267939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.388931389117591</v>
+        <v>-3.706581205693123</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3155207888065711</v>
+        <v>-0.2176242246314963</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.236377576884339</v>
+        <v>8.49320249156588</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.979703894568609</v>
+        <v>5.140922706429871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.940526879759314</v>
+        <v>5.72251638152973</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.9810675230387176</v>
+        <v>0.9810675230387172</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.07851948043684963</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3546839383801561</v>
+        <v>0.3546839383801563</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1075787031098859</v>
+        <v>0.1491688466517326</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.292424399458467</v>
+        <v>-0.296416727917229</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03977017485904915</v>
+        <v>-0.03283334642599377</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.564962475194544</v>
+        <v>2.448898144150133</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6390735030344072</v>
+        <v>0.6675551422090631</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9522554935063566</v>
+        <v>0.9293807584940741</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.249523856206993</v>
+        <v>-2.027621017395156</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.269523547777617</v>
+        <v>-8.678949725868854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.241090705479899</v>
+        <v>-2.255988071007971</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.023949164828527</v>
+        <v>5.104491431516645</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.16461148291827</v>
+        <v>4.389934575618091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.598442881331138</v>
+        <v>3.655794735524768</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2903299946653831</v>
+        <v>-0.2753149841279693</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5904029990827933</v>
+        <v>-0.5765020224366503</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2613202323076251</v>
+        <v>-0.2568899827770034</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.064376106347792</v>
+        <v>1.072929070035213</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6005328283749353</v>
+        <v>0.5179602726231579</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5576287567684468</v>
+        <v>0.6082691647067868</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.67601001562412</v>
+        <v>-4.502670155511916</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.405128374421706</v>
+        <v>-4.159240292940692</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.703913384998306</v>
+        <v>-3.636399167391545</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.511561400416833</v>
+        <v>-0.5905241020757874</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.206725019419388</v>
+        <v>1.506287322195782</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3966040159340964</v>
+        <v>-0.3674334329369127</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5718417410831063</v>
+        <v>-0.5652501224587766</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3659931839335727</v>
+        <v>-0.3497120582318999</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3977120083287151</v>
+        <v>-0.3986775695876753</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.05039008614971855</v>
+        <v>-0.08541835487425932</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1430168700621423</v>
+        <v>0.1786421279806367</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04744241440313763</v>
+        <v>-0.05086379420140947</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-0.362309117684776</v>
+        <v>-0.3623091176847767</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-1.353792392781228</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.149098326467202</v>
+        <v>-3.318608670222095</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.135643583880663</v>
+        <v>-4.253232021337906</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.688441741789491</v>
+        <v>-2.739744775848319</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.957612830470019</v>
+        <v>2.824946751477902</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.534742711957793</v>
+        <v>1.434893365805566</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.31424061631121</v>
+        <v>1.407212201542335</v>
       </c>
     </row>
     <row r="31">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.06311903660905344</v>
+        <v>-0.06311903660905356</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.1390581327193508</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4546792668190993</v>
+        <v>-0.4638425988142019</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3615980213929815</v>
+        <v>-0.3752507475729379</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.30506127843998</v>
+        <v>-0.2944371223491138</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7014729133398507</v>
+        <v>0.6305378601388091</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1984604477862877</v>
+        <v>0.1871018167182606</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1967744529497437</v>
+        <v>0.217031327336911</v>
       </c>
     </row>
     <row r="34">
@@ -1097,10 +1097,10 @@
         <v>-4.128086795459514</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-3.563920722366797</v>
+        <v>-3.563920722366798</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-3.715979169994446</v>
+        <v>-3.715979169994444</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.373179368111214</v>
+        <v>-7.454874527141185</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.895086696920279</v>
+        <v>-5.907262372543107</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.600263554671459</v>
+        <v>-5.65087270695647</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.4146958271895017</v>
+        <v>-0.299704411519461</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-1.348894503448501</v>
+        <v>-1.394458284409911</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.837547698751423</v>
+        <v>-1.770843818851466</v>
       </c>
     </row>
     <row r="37">
@@ -1148,10 +1148,10 @@
         <v>-0.7215903166422223</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.4213382076145905</v>
+        <v>-0.4213382076145907</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.4713073903890377</v>
+        <v>-0.4713073903890376</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.9629340676886471</v>
+        <v>-0.9547864664220046</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5928790220175227</v>
+        <v>-0.587146258280791</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6136904318834198</v>
+        <v>-0.6163968308949869</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3059349936409401</v>
+        <v>0.338066450690654</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.178289634574947</v>
+        <v>-0.1831170952699184</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2568764573572844</v>
+        <v>-0.2499525064714221</v>
       </c>
     </row>
     <row r="40">
@@ -1203,7 +1203,7 @@
         <v>-0.09904055968365244</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-1.543392217999163</v>
+        <v>-1.543392217999166</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-0.8306704568123074</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.295191368348432</v>
+        <v>-1.388478985484428</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.067913912475816</v>
+        <v>-2.939623442878916</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.785311351597437</v>
+        <v>-1.818307133046398</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.281701575811967</v>
+        <v>1.257716664965139</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.2739702282079088</v>
+        <v>-0.2430405393364588</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.04319446599471432</v>
+        <v>0.06813571679113899</v>
       </c>
     </row>
     <row r="43">
@@ -1254,7 +1254,7 @@
         <v>-0.01569210307269461</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.1548875543152917</v>
+        <v>-0.154887554315292</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.1015916417535498</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1961217902367342</v>
+        <v>-0.1951893413697765</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2829877726362782</v>
+        <v>-0.267426086607553</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2053825991122922</v>
+        <v>-0.2064753433024645</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2206946970205839</v>
+        <v>0.2155204501386814</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.02906727092095402</v>
+        <v>-0.02570894475764169</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.005231027228947275</v>
+        <v>0.009469533530154809</v>
       </c>
     </row>
     <row r="46">
